--- a/Data/OutputTableRows.xlsx
+++ b/Data/OutputTableRows.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\libor\Dropbox\LK_docs\Valuetools\Zákazníci\Benet Automotive\Demo Process\Invoice-RossumDataExport\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F190330-EC83-4A35-B505-A8171EEBE4E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450DA26F-BFB3-4668-9FD5-B6BA49AA4B96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="2630" windowWidth="31220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4730" yWindow="850" windowWidth="31220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Variabilní symbol</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>BenetOrderNumber</t>
+  </si>
+  <si>
+    <t>Měna dokladu</t>
+  </si>
+  <si>
+    <t>Currency</t>
   </si>
 </sst>
 </file>
@@ -515,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -566,117 +572,128 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D15" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Data/OutputTableRows.xlsx
+++ b/Data/OutputTableRows.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\libor\Dropbox\LK_docs\Valuetools\Zákazníci\Benet Automotive\Demo Process\Invoice-RossumDataExport\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450DA26F-BFB3-4668-9FD5-B6BA49AA4B96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2B9C53-FB7A-47EE-B830-83E506058B2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4730" yWindow="850" windowWidth="31220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2970" yWindow="1040" windowWidth="31220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -524,7 +524,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Data/OutputTableRows.xlsx
+++ b/Data/OutputTableRows.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\libor\Dropbox\LK_docs\Valuetools\Zákazníci\Benet Automotive\Demo Process\Invoice-RossumDataExport\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2B9C53-FB7A-47EE-B830-83E506058B2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2631BE06-2C95-42CA-9D73-758A11E60A02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="1040" windowWidth="31220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="33280" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Variabilní symbol</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Currency</t>
+  </si>
+  <si>
+    <t>Delivery Note</t>
   </si>
 </sst>
 </file>
@@ -524,7 +527,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -645,6 +648,9 @@
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">

--- a/Data/OutputTableRows.xlsx
+++ b/Data/OutputTableRows.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\libor\Dropbox\LK_docs\Valuetools\Zákazníci\Benet Automotive\Demo Process\Invoice-RossumDataExport\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\libor\Dropbox\LK_docs\Valuetools\Zákazníci\Fiberpreg\InvoiceProcess\Invoice-RossumDataExport\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2631BE06-2C95-42CA-9D73-758A11E60A02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5081B6-7E6A-49F6-A240-D0E3324D8196}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="33280" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,136 +25,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
-  <si>
-    <t>Variabilní symbol</t>
-  </si>
-  <si>
-    <t>Název pole</t>
-  </si>
-  <si>
-    <t>Adresa pole</t>
-  </si>
-  <si>
-    <t>Datum splatnosti</t>
-  </si>
-  <si>
-    <t>Dodací listy příjem</t>
-  </si>
-  <si>
-    <t>OPCH_NumAtCard</t>
-  </si>
-  <si>
-    <t>OPCH_DocDueDate</t>
-  </si>
-  <si>
-    <t>OPCH_U_Dl_k_Prijemce</t>
-  </si>
-  <si>
-    <t>Doklad celkem</t>
-  </si>
-  <si>
-    <t>OPCH_DocTotal</t>
-  </si>
-  <si>
-    <t>OPCH_VatSum</t>
-  </si>
-  <si>
-    <t>Daň (DPH) celkem</t>
-  </si>
-  <si>
-    <t>OCRB_Account</t>
-  </si>
-  <si>
-    <t>Bankovní účet</t>
-  </si>
-  <si>
-    <t>IČO</t>
-  </si>
-  <si>
-    <t>OCRD_VatIdUnCmp</t>
-  </si>
-  <si>
-    <t>Doklad bez DPH</t>
-  </si>
-  <si>
-    <t>OPCH_BaseTotal</t>
-  </si>
-  <si>
-    <t>DUZP</t>
-  </si>
-  <si>
-    <t>Rossum Sloupec</t>
-  </si>
-  <si>
-    <t>Payment Reference</t>
-  </si>
-  <si>
-    <t>Tax Point Date</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Due Date</t>
   </si>
   <si>
-    <t>Order Number</t>
-  </si>
-  <si>
     <t>Total Without Tax</t>
   </si>
   <si>
-    <t>Total Tax</t>
-  </si>
-  <si>
-    <t>Vendor Company ID</t>
-  </si>
-  <si>
-    <t>Account Number</t>
-  </si>
-  <si>
-    <t>OPCH_TaxDate</t>
-  </si>
-  <si>
     <t>Due Amount</t>
   </si>
   <si>
-    <t>XMLCreateDate</t>
-  </si>
-  <si>
-    <t>Datum a čas vytvoření souboru xml</t>
-  </si>
-  <si>
-    <t>DocID</t>
-  </si>
-  <si>
-    <t>ID dokumentu generovany robotem</t>
-  </si>
-  <si>
-    <t>DocType</t>
-  </si>
-  <si>
-    <t>Typ účetního dokladu</t>
-  </si>
-  <si>
-    <t>Číslo objednávky</t>
-  </si>
-  <si>
-    <t>BenetOrderNumber</t>
-  </si>
-  <si>
-    <t>Měna dokladu</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>Delivery Note</t>
+    <t>OutputTable Column</t>
+  </si>
+  <si>
+    <t>Rossum Column</t>
+  </si>
+  <si>
+    <t>GP Code</t>
+  </si>
+  <si>
+    <t>Rechnung-Nr.</t>
+  </si>
+  <si>
+    <t>Lieferantenname</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Kategorie</t>
+  </si>
+  <si>
+    <t>Betrag brutto</t>
+  </si>
+  <si>
+    <t>Betrag netto</t>
+  </si>
+  <si>
+    <t>Rechnungsdatum</t>
+  </si>
+  <si>
+    <t>Fälligkeitsdatum</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Zahlungsdatum</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Vendor Name</t>
+  </si>
+  <si>
+    <t>Issue Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +103,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -189,18 +130,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -211,8 +147,9 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 12" xfId="1" xr:uid="{45B099A5-5FED-4249-AD9E-8E17DC70793E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -524,182 +461,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.26953125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="22.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7265625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="26.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="7"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
